--- a/FileOutput/Widgets_Results.xlsx
+++ b/FileOutput/Widgets_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Automation Testing Programs\JQueryWebElementsAutomationTesting\FileInput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Testing Programs\JQueryWebElementsAutomationTesting\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEEA0D8-D5A6-4A39-BE20-97BDE5D917EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E1EF17-FE6C-4E8A-A6E4-41DE53FB3890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="845" activeTab="2" xr2:uid="{2F09D2FC-9F8C-4591-A842-B775C0FF178F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="845" activeTab="9" xr2:uid="{2F09D2FC-9F8C-4591-A842-B775C0FF178F}"/>
   </bookViews>
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="152">
   <si>
     <t>TSID</t>
   </si>
@@ -416,6 +416,84 @@
   </si>
   <si>
     <t>//*[@id="tags"]</t>
+  </si>
+  <si>
+    <t>//iframe[@src='/resources/demos/dialog/default.html']</t>
+  </si>
+  <si>
+    <t>ui-id-1</t>
+  </si>
+  <si>
+    <t>//span[contains(@class,'ui-icon-closethick')]</t>
+  </si>
+  <si>
+    <t>//iframe[@src='/resources/demos/selectmenu/default.html']</t>
+  </si>
+  <si>
+    <t>speed-button</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'ui-selectmenu-open')]</t>
+  </si>
+  <si>
+    <t>getItemFromListBox</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'ui-selectmenu-open')]/ul[@id='speed-menu' and @aria-labelledby='speed-button']</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Get Item From List Box</t>
+  </si>
+  <si>
+    <t>//iframe[@src='/resources/demos/slider/default.html']</t>
+  </si>
+  <si>
+    <t>//span[contains(@class,'ui-slider-handle')]</t>
+  </si>
+  <si>
+    <t>SlideAction</t>
+  </si>
+  <si>
+    <t>E:\Automation Testing Programs\JQueryWebElementsAutomationTesting\ScreenShots\BeforeSliding.png</t>
+  </si>
+  <si>
+    <t>E:\Automation Testing Programs\JQueryWebElementsAutomationTesting\ScreenShots\AfterSliding.png</t>
+  </si>
+  <si>
+    <t>Download Dialog</t>
+  </si>
+  <si>
+    <t>downloadButton</t>
+  </si>
+  <si>
+    <t>Click Download Dialog</t>
+  </si>
+  <si>
+    <t>Click Start Download Button</t>
+  </si>
+  <si>
+    <t>Wait for Iframe</t>
+  </si>
+  <si>
+    <t>Switch to Iframe</t>
+  </si>
+  <si>
+    <t>//iframe[@src='/resources/demos/progressbar/download.html']</t>
+  </si>
+  <si>
+    <t>wait for Start Download Button</t>
+  </si>
+  <si>
+    <t>wait For Dialog Box</t>
+  </si>
+  <si>
+    <t>//div[@aria-describedby='dialog']</t>
+  </si>
+  <si>
+    <t>E:\Automation Testing Programs\JQueryWebElementsAutomationTesting\ScreenShots\Progressbar.png</t>
   </si>
   <si>
     <t>Pass</t>
@@ -429,7 +507,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +770,90 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="12"/>
       <b val="true"/>
       <i val="true"/>
@@ -699,28 +861,273 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
       <i val="true"/>
     </font>
@@ -766,7 +1173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -819,6 +1226,53 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,7 +1590,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1633,7 @@
         <v>106</v>
       </c>
       <c r="E2" t="s" s="23">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1196,7 +1650,7 @@
         <v>106</v>
       </c>
       <c r="E3" t="s" s="33">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,7 +1665,7 @@
         <v>81</v>
       </c>
       <c r="E4" t="s" s="34">
-        <v>125</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1226,7 +1680,7 @@
         <v>81</v>
       </c>
       <c r="E5" t="s" s="35">
-        <v>125</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,7 +1694,7 @@
         <v>81</v>
       </c>
       <c r="E6" t="s" s="36">
-        <v>125</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,7 +1708,7 @@
         <v>81</v>
       </c>
       <c r="E7" t="s" s="37">
-        <v>125</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,10 +1719,10 @@
         <v>88</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s" s="38">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="E8" t="s" s="49">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1281,8 +1735,8 @@
       <c r="D9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E9" t="s" s="39">
-        <v>125</v>
+      <c r="E9" t="s" s="50">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1293,10 +1747,10 @@
         <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s" s="40">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="E10" t="s" s="64">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,10 +1761,10 @@
         <v>95</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s" s="41">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="E11" t="s" s="77">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,10 +1775,10 @@
         <v>96</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s" s="42">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="E12" t="s" s="89">
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,8 +1791,8 @@
       <c r="D13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E13" t="s" s="43">
-        <v>125</v>
+      <c r="E13" t="s" s="90">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,8 +1805,8 @@
       <c r="D14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E14" t="s" s="44">
-        <v>125</v>
+      <c r="E14" t="s" s="91">
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,8 +1819,8 @@
       <c r="D15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s" s="45">
-        <v>125</v>
+      <c r="E15" t="s" s="92">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1378,42 +1832,971 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEC700A-1E73-4EE2-9CC5-FDCA7B3C243E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="3" width="9.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="31.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="23.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="11.7109375"/>
+    <col min="5" max="5" customWidth="true" style="3" width="66.42578125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="97.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="14.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s" s="51">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="52">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="53">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="54">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s" s="55">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="56">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s" s="57">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="58">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s" s="59">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="60">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" t="s" s="61">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s" s="62">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s" s="63">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09984510-75C4-463C-91C9-97FAF989FE50}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="3" width="9.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="25.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="23.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="11.7109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="98.42578125"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="14.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s" s="65">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="66">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="67">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="68">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s" s="69">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="70">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" t="s" s="71">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="72">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="73">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s" s="74">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s" s="75">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s" s="76">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5883E4-7A82-4443-B29F-2F74C9CEF25C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="3" width="9.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="25.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="23.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="11.7109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="55.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="97.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="14.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s" s="78">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="79">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="80">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="81">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s" s="82">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s" s="83">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s" s="84">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" t="s" s="86">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s" s="87">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s" s="88">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2517,7 +3900,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,7 +3957,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s" s="12">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2597,7 +3980,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s" s="13">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2620,7 +4003,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="14">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2643,7 +4026,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s" s="15">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2666,7 +4049,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s" s="16">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2689,7 +4072,7 @@
         <v>113</v>
       </c>
       <c r="G7" t="s" s="17">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2712,7 +4095,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s" s="18">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,7 +4118,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s" s="19">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2758,7 +4141,7 @@
         <v>114</v>
       </c>
       <c r="G10" t="s" s="20">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2781,7 +4164,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s" s="21">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2804,7 +4187,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s" s="22">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3074,8 +4457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293B8ADE-E583-45CF-8351-FA32EA04396A}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +4515,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s" s="24">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3155,7 +4538,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s" s="25">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3178,7 +4561,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s" s="26">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3201,7 +4584,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s" s="27">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3224,7 +4607,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s" s="28">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3247,7 +4630,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s" s="29">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3270,7 +4653,7 @@
         <v>119</v>
       </c>
       <c r="G8" t="s" s="30">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3293,7 +4676,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s" s="31">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3316,7 +4699,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s" s="32">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3383,14 +4766,300 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEFA030-F4FF-4493-887B-AFE6A70681B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="3" width="9.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="25.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="23.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="11.7109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="55.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="97.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="14.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s" s="38">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="40">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s" s="42">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s" s="43">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s" s="44">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s" s="45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s" s="46">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s" s="47">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s" s="48">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
